--- a/excel/vpn/argentina_vpn.xlsx
+++ b/excel/vpn/argentina_vpn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Bloqueo-DNS-America-Latina-analisis-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Bloqueo-DNS-America-Latina-analisis-\excel\vpn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C21D95-2877-4C77-8AF0-9F3B38FD81FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701910C7-4532-4852-9B37-DD924621906F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="264">
   <si>
     <t>dominio</t>
   </si>
@@ -889,6 +889,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -916,20 +930,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DF6EA79-0CE5-4E08-A1D8-30B8DB63FE04}" name="Tabla1" displayName="Tabla1" ref="A1:H212" totalsRowCount="1" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DF6EA79-0CE5-4E08-A1D8-30B8DB63FE04}" name="Tabla1" displayName="Tabla1" ref="A1:H212" totalsRowCount="1" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:H211" xr:uid="{0DF6EA79-0CE5-4E08-A1D8-30B8DB63FE04}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{83955FAA-6E14-430C-8E5F-315C7CF614D1}" name="dominio"/>
@@ -1247,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:C214"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5176,10 +5176,6 @@
         <f>COUNTIFS(Tabla1[[#All],[dns_experiment_failure]],"&lt;&gt;",Tabla1[[#All],[accesible]],"False")</f>
         <v>42</v>
       </c>
-      <c r="G213" t="e">
-        <f>MODE(Tabla1[[#All],[deduccion primaria]])</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
